--- a/files/strainSummaries/dbsTemplateTables/dbTemplate.xlsx
+++ b/files/strainSummaries/dbsTemplateTables/dbTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fdc002f3bb6c7156/Documentos/GitHub/hungerGamesModel/files/strainSummaries/dbsTemplateTables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{8FA895B9-003E-4A97-8F32-0F524A791FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A990DC9A-8D43-4583-A115-3885F4BC7202}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{8FA895B9-003E-4A97-8F32-0F524A791FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5909F1EA-169B-4E9C-9A99-1E424A2D51F6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="116">
   <si>
     <t>metabolite</t>
   </si>
@@ -451,6 +451,9 @@
   </si>
   <si>
     <t>bh glucose glutamte</t>
+  </si>
+  <si>
+    <t>""</t>
   </si>
 </sst>
 </file>
@@ -623,6 +626,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3897,8 +3904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4004,6 +4011,9 @@
       <c r="C6" t="s">
         <v>70</v>
       </c>
+      <c r="D6" t="s">
+        <v>115</v>
+      </c>
       <c r="E6">
         <v>0.1</v>
       </c>
@@ -4035,6 +4045,9 @@
       <c r="C8" t="s">
         <v>90</v>
       </c>
+      <c r="D8" t="s">
+        <v>115</v>
+      </c>
       <c r="E8" s="1">
         <v>1E-3</v>
       </c>
@@ -4049,7 +4062,9 @@
       <c r="C9" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" t="s">
+        <v>115</v>
+      </c>
       <c r="E9" s="1">
         <v>0.08</v>
       </c>
@@ -4064,6 +4079,9 @@
       <c r="C10" t="s">
         <v>90</v>
       </c>
+      <c r="D10" t="s">
+        <v>115</v>
+      </c>
       <c r="E10" s="1">
         <v>0.1</v>
       </c>
@@ -4078,6 +4096,9 @@
       <c r="C11" t="s">
         <v>109</v>
       </c>
+      <c r="D11" t="s">
+        <v>115</v>
+      </c>
       <c r="E11" s="8">
         <v>0.01</v>
       </c>
@@ -4092,6 +4113,9 @@
       <c r="C12" t="s">
         <v>110</v>
       </c>
+      <c r="D12" t="s">
+        <v>115</v>
+      </c>
       <c r="E12" s="8">
         <v>0.01</v>
       </c>
@@ -4106,6 +4130,9 @@
       <c r="C13" t="s">
         <v>108</v>
       </c>
+      <c r="D13" t="s">
+        <v>115</v>
+      </c>
       <c r="E13" s="8">
         <v>0.01</v>
       </c>
@@ -4120,6 +4147,9 @@
       <c r="C14" t="s">
         <v>99</v>
       </c>
+      <c r="D14" t="s">
+        <v>115</v>
+      </c>
       <c r="E14" s="8">
         <v>0.01</v>
       </c>
@@ -4134,6 +4164,9 @@
       <c r="C15" t="s">
         <v>110</v>
       </c>
+      <c r="D15" t="s">
+        <v>115</v>
+      </c>
       <c r="E15" s="8">
         <v>0.01</v>
       </c>
@@ -4148,6 +4181,9 @@
       <c r="C16" t="s">
         <v>108</v>
       </c>
+      <c r="D16" t="s">
+        <v>115</v>
+      </c>
       <c r="E16" s="8">
         <v>0.01</v>
       </c>
@@ -4162,6 +4198,9 @@
       <c r="C17" t="s">
         <v>111</v>
       </c>
+      <c r="D17" t="s">
+        <v>115</v>
+      </c>
       <c r="E17" s="8">
         <v>0.01</v>
       </c>
@@ -4176,6 +4215,9 @@
       <c r="C18" t="s">
         <v>111</v>
       </c>
+      <c r="D18" t="s">
+        <v>115</v>
+      </c>
       <c r="E18" s="8">
         <v>0.01</v>
       </c>
@@ -4190,6 +4232,9 @@
       <c r="C19" t="s">
         <v>111</v>
       </c>
+      <c r="D19" t="s">
+        <v>115</v>
+      </c>
       <c r="E19" s="8">
         <v>0.01</v>
       </c>
@@ -4203,6 +4248,9 @@
       </c>
       <c r="C20" t="s">
         <v>112</v>
+      </c>
+      <c r="D20" t="s">
+        <v>115</v>
       </c>
       <c r="E20" s="8">
         <v>0.01</v>

--- a/files/strainSummaries/dbsTemplateTables/dbTemplate.xlsx
+++ b/files/strainSummaries/dbsTemplateTables/dbTemplate.xlsx
@@ -8,33 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fdc002f3bb6c7156/Documentos/GitHub/hungerGamesModel/files/strainSummaries/dbsTemplateTables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{8FA895B9-003E-4A97-8F32-0F524A791FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5909F1EA-169B-4E9C-9A99-1E424A2D51F6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{094D6906-BE10-4327-B2D5-EC306E93BA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="elements" sheetId="7" r:id="rId1"/>
-    <sheet name="metabolites" sheetId="12" r:id="rId2"/>
-    <sheet name="metabolites2elements" sheetId="13" r:id="rId3"/>
-    <sheet name="wc" sheetId="18" r:id="rId4"/>
-    <sheet name="species" sheetId="14" r:id="rId5"/>
-    <sheet name="feedingTerms" sheetId="8" r:id="rId6"/>
-    <sheet name="feedingTerms2metabolites" sheetId="9" r:id="rId7"/>
-    <sheet name="subpopulations" sheetId="15" r:id="rId8"/>
-    <sheet name="subpopulations2subpopulations" sheetId="17" r:id="rId9"/>
-    <sheet name="subpopulations2feedingTerms" sheetId="6" r:id="rId10"/>
+    <sheet name="elements.tsv" sheetId="7" r:id="rId1"/>
+    <sheet name="metabolites.tsv" sheetId="12" r:id="rId2"/>
+    <sheet name="metabolites2elements.tsv" sheetId="13" r:id="rId3"/>
+    <sheet name="wc.tsv" sheetId="18" r:id="rId4"/>
+    <sheet name="species.tsv" sheetId="14" r:id="rId5"/>
+    <sheet name="feedingTerms.tsv" sheetId="8" r:id="rId6"/>
+    <sheet name="feedingTerms2metabolites.tsv" sheetId="9" r:id="rId7"/>
+    <sheet name="subpopulations.tsv" sheetId="15" r:id="rId8"/>
+    <sheet name="subpopulations2subpopulations.t" sheetId="17" r:id="rId9"/>
+    <sheet name="subpopulations2feedingTerms.tsv" sheetId="6" r:id="rId10"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">elements!$A$1:$C$7</definedName>
-    <definedName name="ExternalData_1" localSheetId="5" hidden="1">feedingTerms!$A$1:$C$3</definedName>
-    <definedName name="ExternalData_1" localSheetId="6" hidden="1">feedingTerms2metabolites!$A$1:$D$56</definedName>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">metabolites!$A$1:$C$10</definedName>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">metabolites2elements!$A$1:$D$32</definedName>
-    <definedName name="ExternalData_1" localSheetId="4" hidden="1">species!$A$1:$F$4</definedName>
-    <definedName name="ExternalData_1" localSheetId="7" hidden="1">subpopulations!$A$1:$H$16</definedName>
-    <definedName name="ExternalData_1" localSheetId="8" hidden="1">subpopulations2subpopulations!$A$1:$D$1</definedName>
-    <definedName name="ExternalData_1" localSheetId="3" hidden="1">wc!$A$1:$B$11</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">elements.tsv!$A$1:$C$7</definedName>
+    <definedName name="ExternalData_1" localSheetId="5" hidden="1">feedingTerms.tsv!$A$1:$C$11</definedName>
+    <definedName name="ExternalData_1" localSheetId="6" hidden="1">feedingTerms2metabolites.tsv!$A$1:$D$30</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">metabolites.tsv!$A$1:$C$10</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">metabolites2elements.tsv!$A$1:$D$32</definedName>
+    <definedName name="ExternalData_1" localSheetId="4" hidden="1">species.tsv!$A$1:$F$4</definedName>
+    <definedName name="ExternalData_1" localSheetId="7" hidden="1">subpopulations.tsv!$A$1:$H$34</definedName>
+    <definedName name="ExternalData_1" localSheetId="8" hidden="1">subpopulations2subpopulations.t!$A$1:$D$1</definedName>
+    <definedName name="ExternalData_1" localSheetId="3" hidden="1">wc.tsv!$A$1:$B$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="102">
   <si>
     <t>metabolite</t>
   </si>
@@ -309,78 +309,15 @@
     <t>yield</t>
   </si>
   <si>
-    <t>bt.expA</t>
-  </si>
-  <si>
-    <t>bt.expB</t>
-  </si>
-  <si>
-    <t>bt.inac</t>
-  </si>
-  <si>
-    <t>bt.void</t>
-  </si>
-  <si>
     <t>hillFunc</t>
   </si>
   <si>
-    <t xml:space="preserve">(1**(1))/((1**(1)) + metObj.metD['glucose'].concentration**(1)) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1**(1))/((1**(1)) + metObj.metD['mannose'].concentration**(1)) </t>
-  </si>
-  <si>
-    <t>((1**(1))/((1**(1)) + metObj.metD['glucose'].concentration**(1))) *((metObj.metD['mannose'].concentration**(1))/((1**(1)) + metObj.metD['mannose'].concentration**(1)) )</t>
-  </si>
-  <si>
-    <t>bt.lag</t>
-  </si>
-  <si>
-    <t>((metObj.metD['glucose'].concentration**(1))/((1**(1)) + metObj.metD['glucose'].concentration**(1)) ) +((metObj.metD['pyruvate'].concentration**(1))/((1**(1)) + metObj.metD['pyruvate'].concentration**(1)) )</t>
-  </si>
-  <si>
-    <t>bt.lag.ft1</t>
-  </si>
-  <si>
-    <t>bt.lag.ft2</t>
-  </si>
-  <si>
-    <t>bt.expA.ft1</t>
-  </si>
-  <si>
-    <t>bt.expA.ft2</t>
-  </si>
-  <si>
-    <t>bt.expB.ft3</t>
-  </si>
-  <si>
     <t>rate</t>
   </si>
   <si>
-    <t>bh.expA.ft1</t>
-  </si>
-  <si>
-    <t>bh.expA.ft2</t>
-  </si>
-  <si>
     <t>bh pyruvate</t>
   </si>
   <si>
-    <t>bh.expB.ft3</t>
-  </si>
-  <si>
-    <t>bh.expA</t>
-  </si>
-  <si>
-    <t>bh.expB</t>
-  </si>
-  <si>
-    <t>bh.inac</t>
-  </si>
-  <si>
-    <t>bh.void</t>
-  </si>
-  <si>
     <t>#FF10F0</t>
   </si>
   <si>
@@ -390,70 +327,91 @@
     <t>glutamate</t>
   </si>
   <si>
-    <t>(metObj.metD['trehalose'].concentration &lt; 0.2) and ((metObj.metD['glucose'].concentration &gt; 0.05) and (metObj.metD['co2'].concentration &gt; 0.05))</t>
-  </si>
-  <si>
-    <t>ri.lag.ft1</t>
-  </si>
-  <si>
     <t>ri glucose</t>
   </si>
   <si>
-    <t>ri.lag.ft2</t>
-  </si>
-  <si>
     <t>ri pyruvate</t>
   </si>
   <si>
-    <t>ri.expB</t>
-  </si>
-  <si>
-    <t>ri.expA.ft1</t>
-  </si>
-  <si>
-    <t>ri.expA.ft2</t>
-  </si>
-  <si>
-    <t>ri.expB.ft3</t>
-  </si>
-  <si>
-    <t>ri lactate</t>
-  </si>
-  <si>
-    <t>ri lactate and acetate</t>
-  </si>
-  <si>
-    <t>ri.expB.ft4</t>
-  </si>
-  <si>
-    <t>ri.maint.ft3</t>
-  </si>
-  <si>
-    <t>ri.maint.ft4</t>
-  </si>
-  <si>
-    <t>ri.lag</t>
-  </si>
-  <si>
-    <t>ri.expA</t>
-  </si>
-  <si>
-    <t>ri.maint</t>
-  </si>
-  <si>
-    <t>ri.inac</t>
-  </si>
-  <si>
-    <t>ri.void</t>
-  </si>
-  <si>
     <t>bh trehalose</t>
   </si>
   <si>
-    <t>bh glucose glutamte</t>
-  </si>
-  <si>
-    <t>""</t>
+    <t>xa_trehalose</t>
+  </si>
+  <si>
+    <t>bh glucose glutamate</t>
+  </si>
+  <si>
+    <t>xa_pyruvate</t>
+  </si>
+  <si>
+    <t>xb_glucose_glutamate</t>
+  </si>
+  <si>
+    <t>xe_glucose</t>
+  </si>
+  <si>
+    <t>xe_pyruvate</t>
+  </si>
+  <si>
+    <t>xi_pyruvate</t>
+  </si>
+  <si>
+    <t>xi_glucose</t>
+  </si>
+  <si>
+    <t>xj_lactate</t>
+  </si>
+  <si>
+    <t>ri_lactate</t>
+  </si>
+  <si>
+    <t>xj_acetate</t>
+  </si>
+  <si>
+    <t>ri_acetate</t>
+  </si>
+  <si>
+    <t>xa</t>
+  </si>
+  <si>
+    <t>xb</t>
+  </si>
+  <si>
+    <t>xc</t>
+  </si>
+  <si>
+    <t>xd</t>
+  </si>
+  <si>
+    <t>xe</t>
+  </si>
+  <si>
+    <t>xf</t>
+  </si>
+  <si>
+    <t>xg</t>
+  </si>
+  <si>
+    <t>xh</t>
+  </si>
+  <si>
+    <t>xi</t>
+  </si>
+  <si>
+    <t>xj</t>
+  </si>
+  <si>
+    <t>xk</t>
+  </si>
+  <si>
+    <t>xl</t>
+  </si>
+  <si>
+    <t>""'</t>
+  </si>
+  <si>
+    <t>xf_mannose</t>
   </si>
 </sst>
 </file>
@@ -547,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -568,9 +526,8 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -796,8 +753,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="feedingTerms2metabolites" displayName="feedingTerms2metabolites" ref="A1:E56" tableType="queryTable" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A1:E56" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="feedingTerms2metabolites" displayName="feedingTerms2metabolites" ref="A1:E30" tableType="queryTable" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A1:E30" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" uniqueName="1" name="id" queryTableFieldId="1" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" uniqueName="2" name="feedingTerm" queryTableFieldId="2" dataCellStyle="Normal"/>
@@ -1221,10 +1178,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A17"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1250,10 +1207,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1261,7 +1218,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
         <v>78</v>
@@ -1272,7 +1229,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -1283,10 +1240,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1294,10 +1251,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1305,10 +1262,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1316,10 +1273,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1327,10 +1284,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1338,10 +1295,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1349,76 +1306,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1443,7 +1334,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1565,10 +1456,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C11">
         <v>147.13</v>
@@ -1996,7 +1887,7 @@
         <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
@@ -2010,7 +1901,7 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
@@ -2024,7 +1915,7 @@
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C31" t="s">
         <v>13</v>
@@ -2038,7 +1929,7 @@
         <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
@@ -2060,7 +1951,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2151,10 +2042,10 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="B11" s="1">
-        <v>1.3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2171,7 +2062,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2274,10 +2165,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2300,13 +2191,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2314,10 +2205,10 @@
         <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2325,15 +2216,15 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -2344,10 +2235,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
         <v>43</v>
@@ -2355,43 +2246,43 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
         <v>47</v>
@@ -2399,78 +2290,12 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>107</v>
-      </c>
-      <c r="B17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2481,16 +2306,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2517,32 +2342,32 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D2">
-        <v>0.82791024099999999</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>8.4723872240000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3">
-        <v>-0.998722004</v>
-      </c>
-      <c r="E3">
+      <c r="B3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="8">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2550,101 +2375,101 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D4">
-        <v>-0.95689321100000002</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="8">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5">
-        <v>-0.95689321100000002</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+      <c r="B5" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6">
-        <v>-0.95689321100000002</v>
-      </c>
-      <c r="E6">
+      <c r="B6" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="8">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <v>3.9955934919999998</v>
-      </c>
-      <c r="E7">
-        <v>129.71186470000001</v>
+      <c r="B7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D8">
-        <v>-0.95689321100000002</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9">
-        <v>-0.95689321100000002</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="8">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2652,67 +2477,67 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10">
-        <v>-0.95689321100000002</v>
-      </c>
-      <c r="E10">
+      <c r="B10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="8">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="8">
         <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11">
-        <v>0.82791024099999999</v>
-      </c>
-      <c r="E11">
-        <v>8.4723872240000002</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12">
-        <v>-0.998722004</v>
-      </c>
-      <c r="E12">
+      <c r="B12" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="8">
+        <v>-1</v>
+      </c>
+      <c r="E12" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13">
-        <v>-0.95689321100000002</v>
-      </c>
-      <c r="E13">
+      <c r="B13" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="8">
+        <v>-1</v>
+      </c>
+      <c r="E13" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2720,33 +2545,33 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14">
-        <v>-0.95689321100000002</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
+      <c r="B14" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15">
-        <v>-0.95689321100000002</v>
-      </c>
-      <c r="E15">
+      <c r="B15" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="8">
+        <v>-1</v>
+      </c>
+      <c r="E15" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2754,67 +2579,67 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16">
-        <v>3.9955934919999998</v>
-      </c>
-      <c r="E16">
-        <v>129.71186470000001</v>
+      <c r="C16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="8">
+        <v>-1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17">
-        <v>-0.95689321100000002</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
+      <c r="B17" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18">
-        <v>-0.95689321100000002</v>
-      </c>
-      <c r="E18">
+      <c r="B18" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="8">
+        <v>-1</v>
+      </c>
+      <c r="E18" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19">
-        <v>-0.95689321100000002</v>
-      </c>
-      <c r="E19">
+      <c r="B19" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="8">
+        <v>-1</v>
+      </c>
+      <c r="E19" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2822,33 +2647,33 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20">
-        <v>0.82791024099999999</v>
-      </c>
-      <c r="E20">
-        <v>8.4723872240000002</v>
+      <c r="B20" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21">
-        <v>-0.998722004</v>
-      </c>
-      <c r="E21">
+      <c r="B21" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="8">
+        <v>-1</v>
+      </c>
+      <c r="E21" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2856,595 +2681,153 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B22" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="8">
+        <v>-1</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="D22">
-        <v>-0.95689321100000002</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23">
-        <v>-0.95689321100000002</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
+      <c r="B23" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="8">
+        <v>-1</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="D24">
-        <v>-0.95689321100000002</v>
-      </c>
-      <c r="E24">
+      <c r="B25" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="8">
+        <v>-1</v>
+      </c>
+      <c r="E25" s="8">
         <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="8">
+        <v>-1</v>
+      </c>
+      <c r="E26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="1">
-        <v>-3.13813698353353E-2</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="1">
-        <v>-1.5</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
+      <c r="D27" s="8">
+        <v>1</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="8">
+        <v>-1</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="E28" s="1">
-        <v>5.6928042992046004</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B29" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="1">
-        <v>-1.0327014197914</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
+      <c r="D29" s="8">
+        <v>1</v>
+      </c>
+      <c r="E29" s="8">
+        <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>31</v>
-      </c>
-      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C30" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="1">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>32</v>
-      </c>
-      <c r="B31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>33</v>
-      </c>
-      <c r="B32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="1">
-        <v>-1.8</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>37</v>
-      </c>
-      <c r="B33" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>38</v>
-      </c>
-      <c r="B34" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34">
+      <c r="C30" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="8">
         <v>-1</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>39</v>
-      </c>
-      <c r="B35" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35">
-        <v>-1</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>40</v>
-      </c>
-      <c r="B36" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36">
-        <v>-1</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>41</v>
-      </c>
-      <c r="B37" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>42</v>
-      </c>
-      <c r="B38" t="s">
-        <v>97</v>
-      </c>
-      <c r="C38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38">
-        <v>-1</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>43</v>
-      </c>
-      <c r="B39" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39">
-        <v>-1</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>44</v>
-      </c>
-      <c r="B40" t="s">
-        <v>100</v>
-      </c>
-      <c r="C40" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>45</v>
-      </c>
-      <c r="B41" t="s">
-        <v>100</v>
-      </c>
-      <c r="C41" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41">
-        <v>-1</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>46</v>
-      </c>
-      <c r="B42" t="s">
-        <v>100</v>
-      </c>
-      <c r="C42" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42">
-        <v>-1</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>47</v>
-      </c>
-      <c r="B43" t="s">
-        <v>100</v>
-      </c>
-      <c r="C43" t="s">
-        <v>35</v>
-      </c>
-      <c r="D43">
-        <v>-1</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>48</v>
-      </c>
-      <c r="B44" t="s">
-        <v>101</v>
-      </c>
-      <c r="C44" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>49</v>
-      </c>
-      <c r="B45" t="s">
-        <v>101</v>
-      </c>
-      <c r="C45" t="s">
-        <v>22</v>
-      </c>
-      <c r="D45">
-        <v>-1</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>50</v>
-      </c>
-      <c r="B46" t="s">
-        <v>101</v>
-      </c>
-      <c r="C46" t="s">
-        <v>35</v>
-      </c>
-      <c r="D46">
-        <v>-1</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>51</v>
-      </c>
-      <c r="B47" t="s">
-        <v>102</v>
-      </c>
-      <c r="C47" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>52</v>
-      </c>
-      <c r="B48" t="s">
-        <v>102</v>
-      </c>
-      <c r="C48" t="s">
-        <v>35</v>
-      </c>
-      <c r="D48">
-        <v>-1</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>53</v>
-      </c>
-      <c r="B49" t="s">
-        <v>105</v>
-      </c>
-      <c r="C49" t="s">
-        <v>23</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>54</v>
-      </c>
-      <c r="B50" t="s">
-        <v>105</v>
-      </c>
-      <c r="C50" t="s">
-        <v>22</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>55</v>
-      </c>
-      <c r="B51" t="s">
-        <v>105</v>
-      </c>
-      <c r="C51" t="s">
-        <v>35</v>
-      </c>
-      <c r="D51">
-        <v>-1</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>56</v>
-      </c>
-      <c r="B52" t="s">
-        <v>106</v>
-      </c>
-      <c r="C52" t="s">
-        <v>23</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>57</v>
-      </c>
-      <c r="B53" t="s">
-        <v>106</v>
-      </c>
-      <c r="C53" t="s">
-        <v>35</v>
-      </c>
-      <c r="D53">
-        <v>-1</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>58</v>
-      </c>
-      <c r="B54" t="s">
-        <v>107</v>
-      </c>
-      <c r="C54" t="s">
-        <v>23</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>59</v>
-      </c>
-      <c r="B55" t="s">
-        <v>107</v>
-      </c>
-      <c r="C55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>60</v>
-      </c>
-      <c r="B56" t="s">
-        <v>107</v>
-      </c>
-      <c r="C56" t="s">
-        <v>35</v>
-      </c>
-      <c r="D56">
-        <v>-1</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
+      <c r="E30" s="8">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -3458,10 +2841,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3504,25 +2887,25 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>7</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F2">
-        <v>2.12E-2</v>
+        <v>1.1050000000000001E-2</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="H2" t="s">
         <v>56</v>
@@ -3530,25 +2913,25 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C3">
-        <v>1.520962409</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>6.9787760399999996</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>35.845095000000001</v>
+        <v>100</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="H3" t="s">
         <v>56</v>
@@ -3556,189 +2939,189 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C4">
-        <v>1.520962409</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>6.9787760399999996</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>35.845095000000001</v>
+        <v>100</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="H5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>2.12E-2</v>
       </c>
       <c r="G6" t="s">
         <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.46282252580466698</v>
-      </c>
-      <c r="D7" s="1">
-        <v>6.9995333994254301</v>
-      </c>
-      <c r="E7" s="1">
-        <v>100.796079501783</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1.1050000000000001E-2</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>91</v>
+        <v>43</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>55</v>
       </c>
       <c r="H7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1.9785556108037801</v>
-      </c>
-      <c r="D8" s="1">
-        <v>6.3996524512331296</v>
-      </c>
-      <c r="E8" s="1">
-        <v>66.939358856246002</v>
+        <v>43</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>91</v>
+      <c r="G8" t="s">
+        <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>91</v>
+      <c r="G9" t="s">
+        <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>91</v>
+        <v>0.01</v>
+      </c>
+      <c r="G10" t="s">
+        <v>71</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s">
         <v>47</v>
@@ -3747,16 +3130,16 @@
         <v>0.1</v>
       </c>
       <c r="D11">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <v>100</v>
       </c>
       <c r="F11">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="H11" t="s">
         <v>56</v>
@@ -3764,16 +3147,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s">
         <v>47</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -3782,10 +3165,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -3796,10 +3179,10 @@
         <v>47</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -3808,87 +3191,9 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14">
-        <v>0.1</v>
-      </c>
-      <c r="D14">
-        <v>6.5</v>
-      </c>
-      <c r="E14">
-        <v>100</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>92</v>
-      </c>
-      <c r="H14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>111</v>
-      </c>
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>6.5</v>
-      </c>
-      <c r="E15">
-        <v>100</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
-        <v>92</v>
-      </c>
-      <c r="H15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>112</v>
-      </c>
-      <c r="B16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>6.5</v>
-      </c>
-      <c r="E16">
-        <v>100</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>92</v>
-      </c>
-      <c r="H16" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3902,18 +3207,18 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="176" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -3927,10 +3232,10 @@
         <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -3938,16 +3243,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" t="s">
-        <v>76</v>
+        <v>89</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="E2">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -3955,16 +3260,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" t="s">
-        <v>72</v>
+        <v>91</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -3972,16 +3277,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" t="s">
-        <v>74</v>
+        <v>90</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -3989,16 +3294,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" t="s">
-        <v>73</v>
+        <v>91</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="E5">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -4006,16 +3311,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" t="s">
-        <v>115</v>
+        <v>93</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -4023,16 +3328,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="1">
-        <v>4.7975451216386099E-2</v>
+        <v>92</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>1E-3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -4040,15 +3345,15 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="1">
+        <v>94</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8">
         <v>1E-3</v>
       </c>
     </row>
@@ -4057,16 +3362,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.08</v>
+        <v>94</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>1E-3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -4074,16 +3379,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.1</v>
+        <v>95</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>1E-3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -4091,16 +3396,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0.01</v>
+        <v>97</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>1E-3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -4108,16 +3413,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12" t="s">
-        <v>115</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0.01</v>
+        <v>99</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>1E-3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -4125,16 +3430,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E13" s="8">
-        <v>0.01</v>
+        <v>98</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <v>1E-3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -4142,118 +3447,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
         <v>99</v>
       </c>
-      <c r="D14" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" t="s">
-        <v>115</v>
-      </c>
-      <c r="E15" s="8">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16" s="8">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E17" s="8">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" t="s">
-        <v>111</v>
-      </c>
-      <c r="D18" t="s">
-        <v>115</v>
-      </c>
-      <c r="E18" s="8">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" t="s">
-        <v>115</v>
-      </c>
-      <c r="E19" s="8">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" t="s">
-        <v>115</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0.01</v>
+      <c r="D14" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>1E-3</v>
       </c>
     </row>
   </sheetData>

--- a/files/strainSummaries/dbsTemplateTables/dbTemplate.xlsx
+++ b/files/strainSummaries/dbsTemplateTables/dbTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fdc002f3bb6c7156/Documentos/GitHub/hungerGamesModel/files/strainSummaries/dbsTemplateTables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{094D6906-BE10-4327-B2D5-EC306E93BA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{EF5DE93D-A7CB-4ACE-A73F-290C0B2511E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="elements.tsv" sheetId="7" r:id="rId1"/>
@@ -37,6 +37,7 @@
     <definedName name="ExternalData_1" localSheetId="3" hidden="1">wc.tsv!$A$1:$B$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -505,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -526,25 +527,12 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -583,10 +571,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -669,32 +653,12 @@
 </queryTable>
 </file>
 
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="13" xr16:uid="{00000000-0016-0000-0F00-000009000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="10">
-    <queryTableFields count="8">
-      <queryTableField id="1" name="id" tableColumnId="1"/>
-      <queryTableField id="2" name="species" tableColumnId="2"/>
-      <queryTableField id="4" name="mumax" tableColumnId="4"/>
-      <queryTableField id="5" name="pHoptimal" tableColumnId="5"/>
-      <queryTableField id="6" name="pHalpha" tableColumnId="6"/>
-      <queryTableField id="7" name="count" tableColumnId="7"/>
-      <queryTableField id="8" name="color" tableColumnId="8"/>
-      <queryTableField id="9" name="state" tableColumnId="9"/>
-    </queryTableFields>
-    <queryTableDeletedFields count="1">
-      <deletedField name="metabolicPool"/>
-    </queryTableDeletedFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="elements" displayName="elements" ref="A1:C7" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="name" queryTableFieldId="2" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="name" queryTableFieldId="2" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="MolecularWeight" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -705,8 +669,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="metabolites" displayName="metabolites" ref="A1:C10" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:C10" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" uniqueName="3" name="color" queryTableFieldId="3" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" uniqueName="3" name="color" queryTableFieldId="3" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" uniqueName="4" name="MolecularWeight" queryTableFieldId="4"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -718,8 +682,8 @@
   <autoFilter ref="A1:D32" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" uniqueName="2" name="metabolite" queryTableFieldId="2" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" uniqueName="3" name="element" queryTableFieldId="3" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" uniqueName="2" name="metabolite" queryTableFieldId="2" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" uniqueName="3" name="element" queryTableFieldId="3" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" uniqueName="4" name="atoms" queryTableFieldId="4"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -730,7 +694,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="wc" displayName="wc" ref="A1:B11" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B11" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" uniqueName="1" name="metabolite" queryTableFieldId="1" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" uniqueName="1" name="metabolite" queryTableFieldId="1" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" uniqueName="2" name="concentration" queryTableFieldId="2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -741,8 +705,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="species" displayName="species" ref="A1:F4" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:F4" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" uniqueName="2" name="name" queryTableFieldId="2" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" uniqueName="2" name="name" queryTableFieldId="2" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" uniqueName="3" name="genomeSize" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" uniqueName="4" name="geneNumber" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" uniqueName="5" name="patricID" queryTableFieldId="5"/>
@@ -761,23 +725,6 @@
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" uniqueName="3" name="metabolite" queryTableFieldId="3" dataCellStyle="Normal"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" uniqueName="4" name="yield" queryTableFieldId="4" dataCellStyle="Normal"/>
     <tableColumn id="5" xr3:uid="{81AD4D9C-68AF-4FF9-A5EA-E64FC6AF3FD1}" uniqueName="5" name="monodK" queryTableFieldId="5" dataCellStyle="Normal"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="subpopulations" displayName="subpopulations" ref="A1:H16" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:H16" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" uniqueName="2" name="species" queryTableFieldId="2" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" uniqueName="4" name="mumax" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0D00-000005000000}" uniqueName="5" name="pHoptimal" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0D00-000006000000}" uniqueName="6" name="pHalpha" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0D00-000007000000}" uniqueName="7" name="count" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0D00-000008000000}" uniqueName="8" name="color" queryTableFieldId="8" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0D00-000009000000}" uniqueName="9" name="state" queryTableFieldId="9" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2308,7 +2255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -2355,19 +2302,19 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3">
         <v>-1</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3">
         <v>0</v>
       </c>
     </row>
@@ -2375,33 +2322,33 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4">
         <v>-1</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5">
         <v>0.5</v>
       </c>
     </row>
@@ -2409,33 +2356,33 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6">
         <v>-1</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7">
         <v>0.5</v>
       </c>
     </row>
@@ -2443,33 +2390,33 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8">
         <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9">
         <v>-1</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9">
         <v>0</v>
       </c>
     </row>
@@ -2477,33 +2424,33 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10">
         <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11">
         <v>-1</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11">
         <v>0</v>
       </c>
     </row>
@@ -2511,33 +2458,33 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12">
         <v>-1</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13">
         <v>-1</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13">
         <v>0</v>
       </c>
     </row>
@@ -2545,33 +2492,33 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14">
         <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15">
         <v>-1</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15">
         <v>0</v>
       </c>
     </row>
@@ -2579,33 +2526,33 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16">
         <v>-1</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17">
         <v>0.5</v>
       </c>
     </row>
@@ -2613,33 +2560,33 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" t="s">
         <v>101</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18">
         <v>-1</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19">
         <v>-1</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19">
         <v>0</v>
       </c>
     </row>
@@ -2647,33 +2594,33 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20">
         <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21">
         <v>-1</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21">
         <v>0</v>
       </c>
     </row>
@@ -2681,33 +2628,33 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22">
         <v>-1</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23">
         <v>0.5</v>
       </c>
     </row>
@@ -2715,33 +2662,33 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24">
         <v>-1</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25">
         <v>-1</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25">
         <v>0</v>
       </c>
     </row>
@@ -2749,33 +2696,33 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26">
         <v>-1</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27">
         <v>0.5</v>
       </c>
     </row>
@@ -2783,33 +2730,33 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28">
         <v>-1</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29">
         <v>0.5</v>
       </c>
     </row>
@@ -2817,16 +2764,16 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30">
         <v>-1</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30">
         <v>0.5</v>
       </c>
     </row>
@@ -3199,9 +3146,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -3209,8 +3153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3248,7 +3192,7 @@
       <c r="C2" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>100</v>
       </c>
       <c r="E2">
@@ -3265,7 +3209,7 @@
       <c r="C3" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>100</v>
       </c>
       <c r="E3">
@@ -3282,7 +3226,7 @@
       <c r="C4" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>100</v>
       </c>
       <c r="E4">
@@ -3299,7 +3243,7 @@
       <c r="C5" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>100</v>
       </c>
       <c r="E5">
@@ -3316,7 +3260,7 @@
       <c r="C6" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>100</v>
       </c>
       <c r="E6">
@@ -3333,7 +3277,7 @@
       <c r="C7" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>100</v>
       </c>
       <c r="E7">
@@ -3350,7 +3294,7 @@
       <c r="C8" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>100</v>
       </c>
       <c r="E8">
@@ -3367,7 +3311,7 @@
       <c r="C9" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>100</v>
       </c>
       <c r="E9">
@@ -3384,7 +3328,7 @@
       <c r="C10" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>100</v>
       </c>
       <c r="E10">
@@ -3401,7 +3345,7 @@
       <c r="C11" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>100</v>
       </c>
       <c r="E11">
@@ -3416,9 +3360,9 @@
         <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>100</v>
       </c>
       <c r="E12">
@@ -3435,7 +3379,7 @@
       <c r="C13" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>100</v>
       </c>
       <c r="E13">
@@ -3452,7 +3396,7 @@
       <c r="C14" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>100</v>
       </c>
       <c r="E14">

--- a/files/strainSummaries/dbsTemplateTables/dbTemplate.xlsx
+++ b/files/strainSummaries/dbsTemplateTables/dbTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fdc002f3bb6c7156/Documentos/GitHub/hungerGamesModel/files/strainSummaries/dbsTemplateTables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{EF5DE93D-A7CB-4ACE-A73F-290C0B2511E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="14_{EF5DE93D-A7CB-4ACE-A73F-290C0B2511E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E97A9CA3-8625-4403-966E-F5434D4D86C8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,8 +27,8 @@
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">elements.tsv!$A$1:$C$7</definedName>
-    <definedName name="ExternalData_1" localSheetId="5" hidden="1">feedingTerms.tsv!$A$1:$C$11</definedName>
-    <definedName name="ExternalData_1" localSheetId="6" hidden="1">feedingTerms2metabolites.tsv!$A$1:$D$30</definedName>
+    <definedName name="ExternalData_1" localSheetId="5" hidden="1">feedingTerms.tsv!$A$1:$C$12</definedName>
+    <definedName name="ExternalData_1" localSheetId="6" hidden="1">feedingTerms2metabolites.tsv!$A$1:$D$32</definedName>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">metabolites.tsv!$A$1:$C$10</definedName>
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">metabolites2elements.tsv!$A$1:$D$32</definedName>
     <definedName name="ExternalData_1" localSheetId="4" hidden="1">species.tsv!$A$1:$F$4</definedName>
@@ -37,7 +37,6 @@
     <definedName name="ExternalData_1" localSheetId="3" hidden="1">wc.tsv!$A$1:$B$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -107,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="103">
   <si>
     <t>metabolite</t>
   </si>
@@ -413,6 +412,9 @@
   </si>
   <si>
     <t>xf_mannose</t>
+  </si>
+  <si>
+    <t>xb_pyruvate</t>
   </si>
 </sst>
 </file>
@@ -717,8 +719,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="feedingTerms2metabolites" displayName="feedingTerms2metabolites" ref="A1:E30" tableType="queryTable" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A1:E30" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="feedingTerms2metabolites" displayName="feedingTerms2metabolites" ref="A1:E32" tableType="queryTable" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A1:E32" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" uniqueName="1" name="id" queryTableFieldId="1" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" uniqueName="2" name="feedingTerm" queryTableFieldId="2" dataCellStyle="Normal"/>
@@ -2112,10 +2114,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2171,21 +2173,21 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
         <v>43</v>
@@ -2193,10 +2195,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
         <v>43</v>
@@ -2204,21 +2206,21 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
         <v>47</v>
@@ -2226,10 +2228,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
         <v>47</v>
@@ -2237,12 +2239,23 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>86</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>87</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2253,10 +2266,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2425,7 +2438,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -2442,7 +2455,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
@@ -2462,13 +2475,13 @@
         <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2479,7 +2492,7 @@
         <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13">
         <v>-1</v>
@@ -2493,16 +2506,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E14">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2510,10 +2523,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D15">
         <v>-1</v>
@@ -2530,13 +2543,13 @@
         <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -2544,16 +2557,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -2561,10 +2574,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D18">
         <v>-1</v>
@@ -2581,13 +2594,13 @@
         <v>101</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="D19">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -2595,16 +2608,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E20">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -2612,10 +2625,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D21">
         <v>-1</v>
@@ -2632,13 +2645,13 @@
         <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -2646,16 +2659,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -2663,10 +2676,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D24">
         <v>-1</v>
@@ -2683,13 +2696,13 @@
         <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D25">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -2700,7 +2713,7 @@
         <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D26">
         <v>-1</v>
@@ -2714,16 +2727,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
         <v>23</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E27">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -2731,7 +2744,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -2748,10 +2761,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -2765,7 +2778,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
         <v>35</v>
@@ -2774,6 +2787,40 @@
         <v>-1</v>
       </c>
       <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32">
+        <v>-1</v>
+      </c>
+      <c r="E32">
         <v>0.5</v>
       </c>
     </row>
@@ -3154,7 +3201,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/files/strainSummaries/dbsTemplateTables/dbTemplate.xlsx
+++ b/files/strainSummaries/dbsTemplateTables/dbTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fdc002f3bb6c7156/Documentos/GitHub/hungerGamesModel/files/strainSummaries/dbsTemplateTables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="14_{EF5DE93D-A7CB-4ACE-A73F-290C0B2511E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E97A9CA3-8625-4403-966E-F5434D4D86C8}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="14_{EF5DE93D-A7CB-4ACE-A73F-290C0B2511E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0244F078-37B5-436A-BDA7-633DB26A40E6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="elements.tsv" sheetId="7" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="103">
   <si>
     <t>metabolite</t>
   </si>
@@ -573,6 +573,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1127,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1189,10 +1193,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1203,7 +1207,7 @@
         <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1211,10 +1215,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1222,10 +1226,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1236,7 +1240,7 @@
         <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1244,10 +1248,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1258,6 +1262,17 @@
         <v>97</v>
       </c>
       <c r="C11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2116,7 +2131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -2269,7 +2284,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A32"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3200,8 +3215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3254,7 +3269,7 @@
         <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>100</v>
